--- a/Raw_data/Site_Data/ABS.MER.fielddata.Feb.2023_R.PROCESSED.VEG.COVER_ALL.xlsx
+++ b/Raw_data/Site_Data/ABS.MER.fielddata.Feb.2023_R.PROCESSED.VEG.COVER_ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.uws.edu.au\dfshare\HomesCMB$\90957135\My Documents\ABS_FIRE\Fire_Decomp_Nuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Site_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B3E8C-5BE1-4117-A076-C85C45A92502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E87B3E8C-5BE1-4117-A076-C85C45A92502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{569CC816-D44A-439B-9C12-C3BE41DDE003}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site.Level_Data" sheetId="1" r:id="rId1"/>
@@ -759,12 +759,12 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -900,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -5125,13 +5125,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A18CBA7-63CE-4332-9E33-D407F75E9B71}">
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -7687,7 +7690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7900,7 +7903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -8184,7 +8187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -9107,7 +9110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -9178,7 +9181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -9959,7 +9962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -10030,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -10101,7 +10104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -10527,7 +10530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -10598,7 +10601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -10669,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -10882,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -10953,7 +10956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -11095,7 +11098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -11166,7 +11169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -11237,7 +11240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -11308,7 +11311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -11521,7 +11524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -11805,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -11947,7 +11950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -12018,7 +12021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -12089,7 +12092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>86</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -12302,7 +12305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -12373,7 +12376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -12444,7 +12447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -12586,7 +12589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>89</v>
       </c>
@@ -12728,7 +12731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>90</v>
       </c>
@@ -12799,7 +12802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>90</v>
       </c>
@@ -12870,7 +12873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>91</v>
       </c>
@@ -12941,7 +12944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>91</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>92</v>
       </c>
@@ -13083,7 +13086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -13154,7 +13157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -13296,7 +13299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>94</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -13509,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>95</v>
       </c>
@@ -13580,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>96</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -13722,7 +13725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>97</v>
       </c>
@@ -13793,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>97</v>
       </c>
@@ -13864,7 +13867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -14006,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -14077,7 +14080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -14157,17 +14160,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BBE04-023F-46C4-84CB-CBCBA95E19CA}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="170.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="170.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -14191,7 +14194,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14199,7 +14202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -14215,7 +14218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -14223,7 +14226,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -14239,7 +14242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -14247,7 +14250,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -14271,7 +14274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -14279,7 +14282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -14287,7 +14290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -14295,7 +14298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -14303,7 +14306,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -14311,7 +14314,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -14327,7 +14330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -14335,7 +14338,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -14343,7 +14346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -14351,7 +14354,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
